--- a/data/case1/20/V2_5.xlsx
+++ b/data/case1/20/V2_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998873032636</v>
+        <v>0.99999999612595447</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99468857805515443</v>
+        <v>0.99581439375090408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97635297928710296</v>
+        <v>0.98111061262424404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96821022897733333</v>
+        <v>0.97610381438828142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95703276125189496</v>
+        <v>0.96816075845469185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.92934628962368737</v>
+        <v>0.94911194946342781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.92833252514565179</v>
+        <v>0.9435246919840159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92734591754052043</v>
+        <v>0.93659926968102114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92976407975384712</v>
+        <v>0.92831053368331184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93316581470694393</v>
+        <v>0.92094151455204409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93379369135456258</v>
+        <v>0.91994035621268133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93524665774834648</v>
+        <v>0.91829154899320209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94458367841630975</v>
+        <v>0.91188158326218938</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9497520504466801</v>
+        <v>0.90969720136275911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95583577245586204</v>
+        <v>0.90710563620870843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95332965679245985</v>
+        <v>0.9045990921789745</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94962211856315903</v>
+        <v>0.90089109259890698</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94851324320852437</v>
+        <v>0.89978216305739001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99104760272754389</v>
+        <v>0.99312145501120108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98393067076292806</v>
+        <v>0.98600426436831556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98253220728880564</v>
+        <v>0.98460575369221659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98126769806925507</v>
+        <v>0.98334124415017476</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96996307767083356</v>
+        <v>0.9740755267285699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95828331647786658</v>
+        <v>0.96105436359181473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95314756710940718</v>
+        <v>0.95459731426051331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.92475457728073407</v>
+        <v>0.94808463619151229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.91860525313828822</v>
+        <v>0.94690539860109224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8971259144769822</v>
+        <v>0.94223938165782228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.88185238528729437</v>
+        <v>0.93950727168947168</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.87528162287965905</v>
+        <v>0.93930108172330651</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.86762774720080005</v>
+        <v>0.94762814404098106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.86594847515022511</v>
+        <v>0.95149151742844307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.86542848470353229</v>
+        <v>0.95815300697014461</v>
       </c>
     </row>
   </sheetData>
